--- a/Tables/reg_results/ss_shareinf.xlsx
+++ b/Tables/reg_results/ss_shareinf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t/>
   </si>
@@ -30,12 +30,6 @@
     <t/>
   </si>
   <si>
-    <t>informal_hussmann</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>noimss</t>
   </si>
   <si>
@@ -66,25 +60,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>9668557</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3670164</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1285390</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9668557</t>
+    <t>195713564</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25578827</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>195713564</t>
   </si>
   <si>
     <t/>
@@ -114,13 +102,7 @@
     <t>[0.000]</t>
   </si>
   <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.214</t>
+    <t>0.218</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -150,25 +132,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>5467766</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5467766</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5430779</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2273061</t>
+    <t>108266576</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>107667269</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>44700448</t>
   </si>
   <si>
     <t/>
@@ -192,25 +168,19 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.590</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.973</t>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.972</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -234,25 +204,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>9613660</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9613660</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9563567</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3967999</t>
+    <t>99646744</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>99125549</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40854915</t>
   </si>
   <si>
     <t/>
@@ -276,25 +240,19 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.711</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.940</t>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.951</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -318,25 +276,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>24749983</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>18751590</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>16279736</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>15909617</t>
+    <t>403626884</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>232371645</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>281268927</t>
   </si>
   <si>
     <t/>
@@ -360,25 +312,19 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.374</t>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.293</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -420,12 +366,42 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>(1)-(3)</t>
+  </si>
+  <si>
     <t>0.000***</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>0.000***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.000***</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -441,55 +417,7 @@
     <t>p-value</t>
   </si>
   <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
     <t>(2)-(3)</t>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0.000***</t>
@@ -560,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -568,37 +496,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -606,37 +534,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -644,37 +572,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
-        <v>100</v>
-      </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -682,75 +610,75 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5">
+        <v>1034110</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>408257</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>336745</v>
       </c>
       <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
         <v>88</v>
       </c>
-      <c r="H5" t="s">
-        <v>102</v>
-      </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -758,75 +686,75 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7">
+        <v>170535</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>406076</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>335060</v>
       </c>
       <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -834,75 +762,75 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9">
+        <v>1034110</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>167037</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>137203</v>
       </c>
       <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
         <v>92</v>
       </c>
-      <c r="H9" t="s">
-        <v>106</v>
-      </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -910,37 +838,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -948,37 +876,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
@@ -986,113 +914,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/reg_results/ss_shareinf.xlsx
+++ b/Tables/reg_results/ss_shareinf.xlsx
@@ -60,19 +60,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>195713564</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>25578827</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>195713564</t>
+    <t>1.95e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>256907371</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.95e+09</t>
   </si>
   <si>
     <t/>
@@ -102,7 +102,7 @@
     <t>[0.000]</t>
   </si>
   <si>
-    <t>0.218</t>
+    <t>0.220</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -132,19 +132,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>108266576</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>107667269</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>44700448</t>
+    <t>1.08e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.08e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>447076824</t>
   </si>
   <si>
     <t/>
@@ -168,13 +168,13 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.729</t>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.730</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -204,19 +204,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>99646744</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>99125549</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>40854915</t>
+    <t>991520597</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>986199081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>406802632</t>
   </si>
   <si>
     <t/>
@@ -246,13 +246,13 @@
     <t>[0.000]</t>
   </si>
   <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.951</t>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.953</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -276,19 +276,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>403626884</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>232371645</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>281268927</t>
+    <t>4.03e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.32e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.81e+09</t>
   </si>
   <si>
     <t/>
@@ -312,7 +312,7 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.305</t>
+    <t>0.306</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -648,19 +648,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1034110</v>
+        <v>10343364</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>408257</v>
+        <v>4080591</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
       </c>
       <c r="F5">
-        <v>336745</v>
+        <v>3359681</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -724,19 +724,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>170535</v>
+        <v>1705253</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>406076</v>
+        <v>4058685</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
       </c>
       <c r="F7">
-        <v>335060</v>
+        <v>3342419</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1034110</v>
+        <v>10343364</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>167037</v>
+        <v>1669329</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
       </c>
       <c r="F9">
-        <v>137203</v>
+        <v>1368900</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>

--- a/Tables/reg_results/ss_shareinf.xlsx
+++ b/Tables/reg_results/ss_shareinf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t/>
   </si>
@@ -24,7 +24,7 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>informal_</t>
+    <t>informal</t>
   </si>
   <si>
     <t/>
@@ -36,7 +36,7 @@
     <t/>
   </si>
   <si>
-    <t>nosat_</t>
+    <t>nosat</t>
   </si>
   <si>
     <t/>
@@ -60,19 +60,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>1.95e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>256907371</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.95e+09</t>
+    <t>1.08e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.08e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>447076824</t>
   </si>
   <si>
     <t/>
@@ -96,19 +96,19 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.220</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.000</t>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.730</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.972</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -132,19 +132,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>1.08e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.08e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>447076824</t>
+    <t>991520597</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>986199081</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>406802632</t>
   </si>
   <si>
     <t/>
@@ -168,19 +168,19 @@
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.730</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.972</t>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.953</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -204,19 +204,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>991520597</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>986199081</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>406802632</t>
+    <t>2.07e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.06e+09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>853879456</t>
   </si>
   <si>
     <t/>
@@ -234,97 +234,25 @@
     <t>(3)</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Total</t>
   </si>
   <si>
     <t>Mean/SE</t>
   </si>
   <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>4.03e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.32e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.81e+09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Mean/SE</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>[0.000]</t>
-  </si>
-  <si>
-    <t>0.293</t>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>[0.000]</t>
+  </si>
+  <si>
+    <t>0.963</t>
   </si>
   <si>
     <t>[0.000]</t>
@@ -346,78 +274,6 @@
   </si>
   <si>
     <t>(1)-(2)</t>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>(1)-(3)</t>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.000***</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>(2)-(3)</t>
   </si>
   <si>
     <t>0.000***</t>
@@ -488,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:H12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -516,18 +372,6 @@
       <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -554,18 +398,6 @@
       <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -592,18 +424,6 @@
       <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -630,55 +450,31 @@
       <c r="H4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10343364</v>
+        <v>4080591</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>4080591</v>
+        <v>3359681</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
       </c>
-      <c r="F5">
-        <v>3359681</v>
+      <c r="F5" t="s">
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>88</v>
-      </c>
-      <c r="I5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -706,55 +502,31 @@
       <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1705253</v>
+        <v>4058685</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
-        <v>4058685</v>
+        <v>3342419</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="F7">
-        <v>3342419</v>
+      <c r="F7" t="s">
+        <v>66</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -782,55 +554,31 @@
       <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10343364</v>
+        <v>1669329</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9">
-        <v>1669329</v>
+        <v>1368900</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="F9">
-        <v>1368900</v>
+      <c r="F9" t="s">
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>80</v>
       </c>
       <c r="H9" t="s">
         <v>92</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -858,18 +606,6 @@
       <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -896,18 +632,6 @@
       <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -934,18 +658,6 @@
       <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>143</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
